--- a/src/main/java/com/thinkgem/jeesite/modules/finance/excel/kz1.xlsx
+++ b/src/main/java/com/thinkgem/jeesite/modules/finance/excel/kz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>房屋地址</t>
   </si>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,15 +518,15 @@
     <col min="3" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="10" width="25.5" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="14" width="19.5" customWidth="1"/>
-    <col min="15" max="15" width="28.5" customWidth="1"/>
+    <col min="7" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="15" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -540,8 +544,9 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -564,33 +569,36 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
